--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-10.27972548228822</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.95040694760707</v>
+        <v>-16.98460555064114</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.699044821680469</v>
+        <v>-2.661839479423247</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.639628539351286</v>
+        <v>-4.685746541126894</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.83951030104995</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.1564834760544</v>
+        <v>-17.19726268233134</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.672125949871236</v>
+        <v>-2.635243282067229</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.016903421257378</v>
+        <v>-5.056015476192698</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.459300455960669</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.58451113824594</v>
+        <v>-17.62340807687912</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.48429519505123</v>
+        <v>-2.446669398203453</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.425976403825886</v>
+        <v>-5.466604050889949</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.207694551654157</v>
       </c>
       <c r="E5" t="n">
-        <v>-17.65533818072694</v>
+        <v>-17.70566072840809</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.165077269689752</v>
+        <v>-2.132775601320045</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.790569201919202</v>
+        <v>-5.830551500076832</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.069345213288626</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.99385301619213</v>
+        <v>-18.04609205456511</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.040368482528486</v>
+        <v>-2.011244668622274</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.847550576953095</v>
+        <v>-5.867844844457659</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.027952693164382</v>
       </c>
       <c r="E7" t="n">
-        <v>-18.35586441865971</v>
+        <v>-18.40708165459751</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.948665380725762</v>
+        <v>-1.916050815916573</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.774176361894436</v>
+        <v>-5.784687726658303</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.055855112170548</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.77676879784616</v>
+        <v>-18.83528043202939</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.926860410099322</v>
+        <v>-1.896670792696122</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.11156183677337</v>
+        <v>-6.118650896730396</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.122237560135215</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.32752519941786</v>
+        <v>-19.37636637801834</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.414673383700711</v>
+        <v>-1.384410431194508</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.97945598222246</v>
+        <v>-5.98245294343188</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.179330956900284</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.03476893278577</v>
+        <v>-20.08860667640424</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.416853880763355</v>
+        <v>-1.388698090216792</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.92497288969756</v>
+        <v>-5.927153386760205</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.193600800514679</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.5039229207418</v>
+        <v>-20.55868468665811</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.36595931927877</v>
+        <v>-1.334845679577724</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.993746549294453</v>
+        <v>-5.988251305576041</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.130236956562559</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.19026126074679</v>
+        <v>-21.23773351742453</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9038455012111027</v>
+        <v>-0.867441956080054</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.73764081357798</v>
+        <v>-5.734008281475862</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.96246871623512</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.7903868536606</v>
+        <v>-21.83976582301644</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4989966205756097</v>
+        <v>-0.4577382916257144</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.782326336341583</v>
+        <v>-5.777970231223161</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.693727316871717</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.50442630657352</v>
+        <v>-22.55978942033447</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3008011711977446</v>
+        <v>-0.2614691109534139</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.234967794542386</v>
+        <v>-5.229423660755304</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.341397157938307</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.04850432476502</v>
+        <v>-23.0984846419655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1158595500282149</v>
+        <v>0.1526346596811492</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.895201373319265</v>
+        <v>-4.89037592354162</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.940942950869688</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.08785829460247</v>
+        <v>-24.13920264471881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5065400887633884</v>
+        <v>0.5424889562558141</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.494390812355843</v>
+        <v>-4.487096414110407</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.543092929509825</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.06881796642149</v>
+        <v>-25.12058766013525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6777971103045521</v>
+        <v>0.7109347988485016</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.199632588349542</v>
+        <v>-4.195789828952146</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.18518112253248</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.67386190024341</v>
+        <v>-25.72329953768166</v>
       </c>
       <c r="F18" t="n">
-        <v>1.192844205720308</v>
+        <v>1.224070292579294</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.833494864086281</v>
+        <v>-3.838422983008131</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.889393924929038</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.47440010714924</v>
+        <v>-26.52729916144925</v>
       </c>
       <c r="F19" t="n">
-        <v>1.390624089514485</v>
+        <v>1.42648006587644</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.568857811387042</v>
+        <v>-3.569371157108068</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.659658412316989</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.23600959687725</v>
+        <v>-27.28408564590305</v>
       </c>
       <c r="F20" t="n">
-        <v>1.609245809582321</v>
+        <v>1.644637330291918</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.339573167342464</v>
+        <v>-3.34539597452096</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.473865707066214</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.86370674401702</v>
+        <v>-27.91884251895866</v>
       </c>
       <c r="F21" t="n">
-        <v>1.887777419797333</v>
+        <v>1.923589395097485</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.319313122885969</v>
+        <v>-3.324583472288503</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.305278168150823</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.22809175931849</v>
+        <v>-28.27319529216922</v>
       </c>
       <c r="F22" t="n">
-        <v>1.833489887547109</v>
+        <v>1.872098374775137</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.214311922405237</v>
+        <v>-3.225312187855795</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.12668433936247</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.013322485724</v>
+        <v>-29.06558841363476</v>
       </c>
       <c r="F23" t="n">
-        <v>1.902943119098503</v>
+        <v>1.937278614324847</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.726037028592707</v>
+        <v>-2.736103493731685</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.909932571027825</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.1452963370895</v>
+        <v>-29.19403240204235</v>
       </c>
       <c r="F24" t="n">
-        <v>2.013341783160309</v>
+        <v>2.044245195566079</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.487854392050344</v>
+        <v>-2.499187109967853</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.643958675471398</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.52524306124837</v>
+        <v>-29.57559983197759</v>
       </c>
       <c r="F25" t="n">
-        <v>1.888799222232518</v>
+        <v>1.920783105155875</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.493716311283775</v>
+        <v>-2.507737982978087</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.327060750597748</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.46055416688878</v>
+        <v>-29.49752483681639</v>
       </c>
       <c r="F26" t="n">
-        <v>1.737900025285188</v>
+        <v>1.772685309143288</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.46497872892005</v>
+        <v>-2.471725558396392</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.964278319499033</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.58615275329983</v>
+        <v>-29.63175496485098</v>
       </c>
       <c r="F27" t="n">
-        <v>1.608712907833827</v>
+        <v>1.645928028104784</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.02508544706251</v>
+        <v>-2.040608043864965</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.580750915502495</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.33178505952454</v>
+        <v>-29.37137623713282</v>
       </c>
       <c r="F28" t="n">
-        <v>1.605456829260462</v>
+        <v>1.638687408934883</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.096963626019893</v>
+        <v>-2.111699092716775</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.203825540349515</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.54308060280231</v>
+        <v>-29.57412824091065</v>
       </c>
       <c r="F29" t="n">
-        <v>1.293151959608802</v>
+        <v>1.328484812235996</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.764853389550361</v>
+        <v>-1.769028601414707</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.863050267405656</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.6360817359282</v>
+        <v>-29.66579711966531</v>
       </c>
       <c r="F30" t="n">
-        <v>1.292878175224255</v>
+        <v>1.329061715046292</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.571923400568163</v>
+        <v>-1.576675515242805</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.591824576841259</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.36986064500408</v>
+        <v>-29.39686018542661</v>
       </c>
       <c r="F31" t="n">
-        <v>1.175517565383962</v>
+        <v>1.212918467915861</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.235882402577631</v>
+        <v>-1.242433671779297</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.410925708965645</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.2469999024385</v>
+        <v>-29.27026424161472</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8719640180240793</v>
+        <v>0.9152855078718127</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.31868751188257</v>
+        <v>-1.320486666409595</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.336272219471748</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.73477131948152</v>
+        <v>-28.75017902462261</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8842892043355719</v>
+        <v>0.9218954451558817</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.9777330619907884</v>
+        <v>-0.9762908049650484</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.376044160972867</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.21318517738127</v>
+        <v>-28.23506592761415</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6833852451534359</v>
+        <v>0.7251226967762888</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.8670361685101</v>
+        <v>-0.8607049046174452</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.52098250135342</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.88205029778169</v>
+        <v>-27.89162541773054</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6652616966977822</v>
+        <v>0.7099814425094533</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.8768728503263329</v>
+        <v>-0.8610373570843954</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.759854622909928</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.87614193298302</v>
+        <v>-27.88780221436061</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8328812971299613</v>
+        <v>0.8724040286421016</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8059040266461955</v>
+        <v>-0.7916574606360054</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.072786443805106</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.47259352817413</v>
+        <v>-27.47614783616637</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7532687093091183</v>
+        <v>0.7929332220203992</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.9234846417955</v>
+        <v>-0.9109296721612624</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.431943721675011</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.1531458194899</v>
+        <v>-27.15536542860748</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8094482872168379</v>
+        <v>0.8479981063624623</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.908314053487463</v>
+        <v>-0.8974311242017102</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.818131672733314</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.72982382640777</v>
+        <v>-26.73242477806097</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8855994581759051</v>
+        <v>0.9213674324142549</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.8285694624812132</v>
+        <v>-0.8160927169568463</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.208871481445304</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.37405568570924</v>
+        <v>-26.37241786840882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7986093589928874</v>
+        <v>0.829219430986642</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.9037428320668974</v>
+        <v>-0.891182973425793</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.584299030940532</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.98969663285299</v>
+        <v>-25.99116822391993</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8587490324628082</v>
+        <v>0.8964970544822586</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.0061919709631</v>
+        <v>-0.9911044957718007</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.93786903054937</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.57591553667164</v>
+        <v>-25.57589109163731</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8463651780689126</v>
+        <v>0.8778014922231758</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.076667004949679</v>
+        <v>-1.063725803772955</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.261859559206393</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.04111196450668</v>
+        <v>-25.04377158424228</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7422684438585596</v>
+        <v>0.7713727017373043</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.9871052881546643</v>
+        <v>-0.9688839595616723</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.555017053065463</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.45816145271634</v>
+        <v>-24.45186930087862</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8700817503803171</v>
+        <v>0.9005500411749311</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.482386128807483</v>
+        <v>-1.453149867743332</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.823245207457892</v>
       </c>
       <c r="E45" t="n">
-        <v>-23.96202992486868</v>
+        <v>-23.95789382505927</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8878190672934845</v>
+        <v>0.9185513644589118</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.530195726959044</v>
+        <v>-1.49906253123053</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.069137016363246</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.65384159899896</v>
+        <v>-23.65271712741957</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9163562003756671</v>
+        <v>0.949586780050088</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.802278737116595</v>
+        <v>-1.766461872809576</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.303151282134328</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.15149125441658</v>
+        <v>-23.14617201494538</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8826611650488893</v>
+        <v>0.9185220304177104</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.82908516176789</v>
+        <v>-1.792818508829115</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.535730425856787</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.03529911721748</v>
+        <v>-23.02619089742442</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7880393261466173</v>
+        <v>0.8229468351763901</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.859641454686108</v>
+        <v>-1.8246948336014</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.767608809574302</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.411466730006</v>
+        <v>-22.40595193026012</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7704437904325905</v>
+        <v>0.8125136945223935</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.245403652513165</v>
+        <v>-2.207274287958096</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.006012819259343</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.09675157996896</v>
+        <v>-22.09212657947285</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7576981495305432</v>
+        <v>0.8022272240744045</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.469085494688258</v>
+        <v>-2.423598174798481</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.252201332290054</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.61959428777179</v>
+        <v>-21.61748712581215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9326317042356269</v>
+        <v>0.9730833470524812</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.378301526176514</v>
+        <v>-2.330711933333964</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.499357800952399</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.1695563166654</v>
+        <v>-21.15606265771272</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8741591821073241</v>
+        <v>0.9175833410992628</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.228614802932179</v>
+        <v>-2.176600658875071</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.751371545291503</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.80744713406048</v>
+        <v>-20.8012380953395</v>
       </c>
       <c r="F53" t="n">
-        <v>1.081922417923742</v>
+        <v>1.118482411274532</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.29911917095996</v>
+        <v>-2.251549134144877</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.005702036189604</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.40609389333483</v>
+        <v>-20.3969807845349</v>
       </c>
       <c r="F54" t="n">
-        <v>1.048530501022713</v>
+        <v>1.091856879877313</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.287928234241591</v>
+        <v>-2.237356347210223</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.256741933099558</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.00726826915938</v>
+        <v>-19.99551020764445</v>
       </c>
       <c r="F55" t="n">
-        <v>1.153062356844221</v>
+        <v>1.195210485043895</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.735203916468172</v>
+        <v>-2.681444396959576</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.50961723666871</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.55352931985474</v>
+        <v>-19.54382953023077</v>
       </c>
       <c r="F56" t="n">
-        <v>1.097919248392287</v>
+        <v>1.139148243300981</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.609908448482876</v>
+        <v>-2.555880033596599</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.760170161738539</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.27809245098648</v>
+        <v>-19.2698886974638</v>
       </c>
       <c r="F57" t="n">
-        <v>1.004715221481421</v>
+        <v>1.046540675227878</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.858201551226019</v>
+        <v>-2.805038490555186</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.0049883126354</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.88503096590712</v>
+        <v>-18.87351246572867</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8313608159943507</v>
+        <v>0.8670603441365636</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.01214171044457</v>
+        <v>-2.963271197802888</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.24857667559105</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.64021883605322</v>
+        <v>-18.6353444962069</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7537087199271406</v>
+        <v>0.794610151375751</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.897822062875497</v>
+        <v>-2.852799198638078</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.48463215270792</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.24644844497816</v>
+        <v>-18.24175988739279</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7109103538141671</v>
+        <v>0.752129570709127</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.042761560452058</v>
+        <v>-3.000007195400887</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.7122477168003</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.75646239876221</v>
+        <v>-17.74759862931249</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7408750769014888</v>
+        <v>0.7772590660050699</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.107829352843829</v>
+        <v>-3.073493857617486</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.93272881294666</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.64805356049524</v>
+        <v>-17.6427832110927</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6247269407641904</v>
+        <v>0.6675106398565631</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.23623911820335</v>
+        <v>-3.203541440277423</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.13642143907198</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.08719647073649</v>
+        <v>-17.08094831996057</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5181025900036423</v>
+        <v>0.5521496338248381</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.227561131014576</v>
+        <v>-3.194721671889508</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.32511831687877</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.26198335523556</v>
+        <v>-17.25510452257381</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3876247747394161</v>
+        <v>0.4263799321734509</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.363793307361161</v>
+        <v>-3.329839154670437</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.49864341073032</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.01169064868385</v>
+        <v>-17.00884524668731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3466940092496043</v>
+        <v>0.3895217094037792</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.151742412522459</v>
+        <v>-3.128309402609336</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.64755620397418</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.89538117531994</v>
+        <v>-16.89972261341777</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3231436631716749</v>
+        <v>0.3667731604520239</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.233330159117536</v>
+        <v>-3.214106584116826</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.77654161026403</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.68466497935591</v>
+        <v>-16.6877254976546</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1196436413432071</v>
+        <v>0.1640064896535934</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.161339533002213</v>
+        <v>-3.144883135888177</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.8833892704972</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.65500337469434</v>
+        <v>-16.65889013515353</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.02033351426343476</v>
+        <v>0.02257241000061082</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.937335016373904</v>
+        <v>-2.922110648990331</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.96001068348776</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.65149795677076</v>
+        <v>-16.6589243582016</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.02287090882736362</v>
+        <v>0.02348665428472392</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.815574300353387</v>
+        <v>-2.803943353016996</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.01246535449451</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.70095515023647</v>
+        <v>-16.71208252986557</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2723764852735011</v>
+        <v>-0.2257304707562656</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.8670115416002</v>
+        <v>-2.859487360032017</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.03777086336155</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.42226709180172</v>
+        <v>-16.43098908005229</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3127841270285531</v>
+        <v>-0.2657665479894321</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.562005959200843</v>
+        <v>-2.555963146713336</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.03041322961123</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.51652225518897</v>
+        <v>-16.52397310165415</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4317727761555291</v>
+        <v>-0.3839925120451693</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.622106520615829</v>
+        <v>-2.612245393765261</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.99668803552739</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.32108909469091</v>
+        <v>-16.33451430754746</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.5839528929019907</v>
+        <v>-0.5264972842020063</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.249031295608416</v>
+        <v>-2.252038034831569</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.93297063193444</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.50985853882937</v>
+        <v>-16.52344019990566</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.655508397406158</v>
+        <v>-0.5975541100057481</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.983362662460258</v>
+        <v>-1.984105791504029</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.84141757468957</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.66006838580846</v>
+        <v>-16.68039687636109</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6075130169936539</v>
+        <v>-0.5505560869940948</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.857729853001144</v>
+        <v>-1.859744123830313</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.73252636403502</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.85031431002072</v>
+        <v>-16.86889742512187</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7097225945533777</v>
+        <v>-0.647167751691201</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.584126361707983</v>
+        <v>-1.591513651083892</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.60526579919121</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.9246761044665</v>
+        <v>-16.94270187278481</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.8867633112181018</v>
+        <v>-0.8217981879705361</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.301844883226048</v>
+        <v>-1.304362721762509</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.46768387486212</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.45961656882373</v>
+        <v>-17.47792589954033</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.084328078710135</v>
+        <v>-1.025928891684836</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.9799966721701699</v>
+        <v>-0.9757432361959539</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.32887537120876</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.71398181809558</v>
+        <v>-17.73434942070315</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.108029984000939</v>
+        <v>-1.045455585111294</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.9737974114629218</v>
+        <v>-0.9732351756732266</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.18498337282746</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.8955448661122</v>
+        <v>-17.91299373162022</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.176759642536029</v>
+        <v>-1.123645471933865</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5843244574238763</v>
+        <v>-0.5819581781002894</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.04417644899832</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.63102261413655</v>
+        <v>-18.65725213597755</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.385701129007373</v>
+        <v>-1.321684473091989</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.279739329615075</v>
+        <v>-0.2738822993885109</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.90836691849753</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.0606000915049</v>
+        <v>-19.0921195187759</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.412087099068113</v>
+        <v>-1.354338149956114</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.05597437432324473</v>
+        <v>-0.04625991767868473</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.77074420093201</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.65960121283932</v>
+        <v>-19.69581408670256</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.467645773103734</v>
+        <v>-1.41104574060546</v>
       </c>
       <c r="G83" t="n">
-        <v>0.140172581177383</v>
+        <v>0.1504003835429691</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.63859999635347</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.6345082941571</v>
+        <v>-20.67147407507784</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.650274624617342</v>
+        <v>-1.594838175753394</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5154429702680405</v>
+        <v>0.5284770625752359</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.51155693721864</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.13480525585537</v>
+        <v>-21.17367774945421</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.633705780345368</v>
+        <v>-1.581574300123453</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5554203794188041</v>
+        <v>0.568302912513125</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.38507235376773</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.22443777231217</v>
+        <v>-22.25631898609133</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.845883789362609</v>
+        <v>-1.796607489150974</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8185271729686989</v>
+        <v>0.8358782583393801</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.26823947222953</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.06453537828164</v>
+        <v>-23.09850419799296</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.897404143726159</v>
+        <v>-1.845316664566047</v>
       </c>
       <c r="G87" t="n">
-        <v>1.032919902096653</v>
+        <v>1.051903915760884</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.15842692081418</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.31529978305822</v>
+        <v>-24.34580718590777</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.85041589872824</v>
+        <v>-1.792349164169891</v>
       </c>
       <c r="G88" t="n">
-        <v>1.220877771095198</v>
+        <v>1.243147197373996</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.0545211733298</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.54200538504272</v>
+        <v>-25.57269857015321</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.103050439569202</v>
+        <v>-2.054008811687179</v>
       </c>
       <c r="G89" t="n">
-        <v>1.353012959687309</v>
+        <v>1.383696366784067</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.962921027761031</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.96047250336822</v>
+        <v>-26.98456552920837</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.327348296609526</v>
+        <v>-2.281469856170397</v>
       </c>
       <c r="G90" t="n">
-        <v>1.517928939322084</v>
+        <v>1.55067550731668</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.878390537328812</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.36490817198568</v>
+        <v>-28.39497311971377</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.67975768959049</v>
+        <v>-2.639760724412259</v>
       </c>
       <c r="G91" t="n">
-        <v>1.165886221856139</v>
+        <v>1.2005590585563</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.803103707444883</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.1415390443745</v>
+        <v>-30.17005662142921</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.798506777380987</v>
+        <v>-2.759394722445668</v>
       </c>
       <c r="G92" t="n">
-        <v>0.982460462223224</v>
+        <v>1.021870746577425</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.74081070379262</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.78572916524203</v>
+        <v>-31.81379450916155</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.988610920394108</v>
+        <v>-2.953928305680213</v>
       </c>
       <c r="G93" t="n">
-        <v>0.803923709457224</v>
+        <v>0.8509119544551436</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.684281850406409</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.76426868772414</v>
+        <v>-33.79156645756556</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.108513813805197</v>
+        <v>-3.069406647876745</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7457983068164722</v>
+        <v>0.7954657275774611</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.640443023630299</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.92971494272841</v>
+        <v>-35.95691737693593</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.3645559924324</v>
+        <v>-3.328528900830104</v>
       </c>
       <c r="G95" t="n">
-        <v>0.332740783651429</v>
+        <v>0.378897897481973</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.612381038608707</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.96965305794867</v>
+        <v>-37.99896509861926</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.621170184863032</v>
+        <v>-3.588105831422086</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.164886780297509</v>
+        <v>-0.1002834435580949</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.595732525077635</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.06741345738394</v>
+        <v>-40.09109336214384</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.623252901788337</v>
+        <v>-3.598597640158485</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.602047107316443</v>
+        <v>-0.5423327774439438</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.598031793702541</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.09849269216135</v>
+        <v>-42.11844717368866</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.008516420914969</v>
+        <v>-3.988329711561477</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.023205714859964</v>
+        <v>-0.9617557875497103</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.615733176975496</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.36333734577686</v>
+        <v>-44.38480497492949</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.974317817880899</v>
+        <v>-3.960667710708472</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.144585088344862</v>
+        <v>-1.084513860971078</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.638603867131724</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.91114549433225</v>
+        <v>-46.92886081071452</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.335825652641191</v>
+        <v>-4.327763680317648</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.554093192524525</v>
+        <v>-1.491601906751618</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.665437927098255</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.12880634267518</v>
+        <v>-49.14406982211369</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.475162348348267</v>
+        <v>-4.472703177894209</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.753408224474913</v>
+        <v>-1.694182795289106</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.684345969445218</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.44584847810531</v>
+        <v>-51.46203353533823</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.612342992027034</v>
+        <v>-4.611003404145499</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.030619802835858</v>
+        <v>-1.969981450665512</v>
       </c>
     </row>
   </sheetData>
